--- a/natmiOut/OldD2/LR-pairs_lrc2p/Vcam1-Itgad.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Vcam1-Itgad.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,60 +534,60 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.7786393340571</v>
+        <v>14.972416</v>
       </c>
       <c r="H2">
-        <v>14.7786393340571</v>
+        <v>29.944832</v>
       </c>
       <c r="I2">
-        <v>0.1145876518263501</v>
+        <v>0.1033656722518705</v>
       </c>
       <c r="J2">
-        <v>0.1145876518263501</v>
+        <v>0.08332290573803899</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.22461493971914</v>
+        <v>0.1604463333333333</v>
       </c>
       <c r="N2">
-        <v>0.22461493971914</v>
+        <v>0.481339</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.4091752212750475</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.4091752212750475</v>
       </c>
       <c r="Q2">
-        <v>3.319503183150147</v>
+        <v>2.402269248341333</v>
       </c>
       <c r="R2">
-        <v>3.319503183150147</v>
+        <v>14.413615490048</v>
       </c>
       <c r="S2">
-        <v>0.1145876518263501</v>
+        <v>0.04229467181590314</v>
       </c>
       <c r="T2">
-        <v>0.1145876518263501</v>
+        <v>0.03409366839264203</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -599,57 +599,57 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.1949520906659</v>
+        <v>14.972416</v>
       </c>
       <c r="H3">
-        <v>38.1949520906659</v>
+        <v>29.944832</v>
       </c>
       <c r="I3">
-        <v>0.2961483647282326</v>
+        <v>0.1033656722518705</v>
       </c>
       <c r="J3">
-        <v>0.2961483647282326</v>
+        <v>0.08332290573803899</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.22461493971914</v>
+        <v>0.231675</v>
       </c>
       <c r="N3">
-        <v>0.22461493971914</v>
+        <v>0.695025</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.5908247787249524</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.5908247787249525</v>
       </c>
       <c r="Q3">
-        <v>8.579156861420362</v>
+        <v>3.4687344768</v>
       </c>
       <c r="R3">
-        <v>8.579156861420362</v>
+        <v>20.8124068608</v>
       </c>
       <c r="S3">
-        <v>0.2961483647282326</v>
+        <v>0.06107100043596733</v>
       </c>
       <c r="T3">
-        <v>0.2961483647282326</v>
+        <v>0.04922923734539696</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.3754881881135</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H4">
-        <v>2.3754881881135</v>
+        <v>121.239368</v>
       </c>
       <c r="I4">
-        <v>0.01841858423257366</v>
+        <v>0.2790017050179012</v>
       </c>
       <c r="J4">
-        <v>0.01841858423257366</v>
+        <v>0.3373542530344942</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.22461493971914</v>
+        <v>0.1604463333333333</v>
       </c>
       <c r="N4">
-        <v>0.22461493971914</v>
+        <v>0.481339</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.4091752212750475</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.4091752212750475</v>
       </c>
       <c r="Q4">
-        <v>0.533570136176643</v>
+        <v>6.484137350416887</v>
       </c>
       <c r="R4">
-        <v>0.533570136176643</v>
+        <v>58.357236153752</v>
       </c>
       <c r="S4">
-        <v>0.01841858423257366</v>
+        <v>0.1141605843868152</v>
       </c>
       <c r="T4">
-        <v>0.01841858423257366</v>
+        <v>0.1380370011334675</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.1916422859751</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H5">
-        <v>12.1916422859751</v>
+        <v>121.239368</v>
       </c>
       <c r="I5">
-        <v>0.09452911258462977</v>
+        <v>0.2790017050179012</v>
       </c>
       <c r="J5">
-        <v>0.09452911258462977</v>
+        <v>0.3373542530344942</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.22461493971914</v>
+        <v>0.231675</v>
       </c>
       <c r="N5">
-        <v>0.22461493971914</v>
+        <v>0.695025</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.5908247787249524</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.5908247787249525</v>
       </c>
       <c r="Q5">
-        <v>2.738424997141615</v>
+        <v>9.362710193799998</v>
       </c>
       <c r="R5">
-        <v>2.738424997141615</v>
+        <v>84.26439174419998</v>
       </c>
       <c r="S5">
-        <v>0.09452911258462977</v>
+        <v>0.1648411206310859</v>
       </c>
       <c r="T5">
-        <v>0.09452911258462977</v>
+        <v>0.1993172519010267</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.84609739952954</v>
+        <v>5.007042333333334</v>
       </c>
       <c r="H6">
-        <v>9.84609739952954</v>
+        <v>15.021127</v>
       </c>
       <c r="I6">
-        <v>0.07634269672348057</v>
+        <v>0.03456732011577652</v>
       </c>
       <c r="J6">
-        <v>0.07634269672348057</v>
+        <v>0.04179699352128983</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.22461493971914</v>
+        <v>0.1604463333333333</v>
       </c>
       <c r="N6">
-        <v>0.22461493971914</v>
+        <v>0.481339</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.4091752212750475</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.4091752212750475</v>
       </c>
       <c r="Q6">
-        <v>2.211580573864109</v>
+        <v>0.8033615832281111</v>
       </c>
       <c r="R6">
-        <v>2.211580573864109</v>
+        <v>7.230254249053</v>
       </c>
       <c r="S6">
-        <v>0.07634269672348057</v>
+        <v>0.01414409085725826</v>
       </c>
       <c r="T6">
-        <v>0.07634269672348057</v>
+        <v>0.01710229407270549</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,52 +847,424 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>51.5855359119143</v>
+        <v>5.007042333333334</v>
       </c>
       <c r="H7">
-        <v>51.5855359119143</v>
+        <v>15.021127</v>
       </c>
       <c r="I7">
-        <v>0.3999735899047333</v>
+        <v>0.03456732011577652</v>
       </c>
       <c r="J7">
-        <v>0.3999735899047333</v>
+        <v>0.04179699352128983</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.22461493971914</v>
+        <v>0.231675</v>
       </c>
       <c r="N7">
-        <v>0.22461493971914</v>
+        <v>0.695025</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.5908247787249524</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.5908247787249525</v>
       </c>
       <c r="Q7">
-        <v>11.58688203923416</v>
+        <v>1.160006532575</v>
       </c>
       <c r="R7">
-        <v>11.58688203923416</v>
+        <v>10.440058793175</v>
       </c>
       <c r="S7">
-        <v>0.3999735899047333</v>
+        <v>0.02042322925851826</v>
       </c>
       <c r="T7">
-        <v>0.3999735899047333</v>
+        <v>0.02469469944858434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>12.521722</v>
+      </c>
+      <c r="H8">
+        <v>37.565166</v>
+      </c>
+      <c r="I8">
+        <v>0.08644671723528362</v>
+      </c>
+      <c r="J8">
+        <v>0.1045268440862112</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1604463333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.481339</v>
+      </c>
+      <c r="O8">
+        <v>0.4091752212750475</v>
+      </c>
+      <c r="P8">
+        <v>0.4091752212750475</v>
+      </c>
+      <c r="Q8">
+        <v>2.009064381919333</v>
+      </c>
+      <c r="R8">
+        <v>18.081579437274</v>
+      </c>
+      <c r="S8">
+        <v>0.03537185465324864</v>
+      </c>
+      <c r="T8">
+        <v>0.04276979455815785</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>12.521722</v>
+      </c>
+      <c r="H9">
+        <v>37.565166</v>
+      </c>
+      <c r="I9">
+        <v>0.08644671723528362</v>
+      </c>
+      <c r="J9">
+        <v>0.1045268440862112</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.231675</v>
+      </c>
+      <c r="N9">
+        <v>0.695025</v>
+      </c>
+      <c r="O9">
+        <v>0.5908247787249524</v>
+      </c>
+      <c r="P9">
+        <v>0.5908247787249525</v>
+      </c>
+      <c r="Q9">
+        <v>2.90096994435</v>
+      </c>
+      <c r="R9">
+        <v>26.10872949915001</v>
+      </c>
+      <c r="S9">
+        <v>0.05107486258203497</v>
+      </c>
+      <c r="T9">
+        <v>0.06175704952805334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>11.74303333333333</v>
+      </c>
+      <c r="H10">
+        <v>35.2291</v>
+      </c>
+      <c r="I10">
+        <v>0.08107085287879548</v>
+      </c>
+      <c r="J10">
+        <v>0.09802663038937569</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.1604463333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.481339</v>
+      </c>
+      <c r="O10">
+        <v>0.4091752212750475</v>
+      </c>
+      <c r="P10">
+        <v>0.4091752212750475</v>
+      </c>
+      <c r="Q10">
+        <v>1.884126640544445</v>
+      </c>
+      <c r="R10">
+        <v>16.9571397649</v>
+      </c>
+      <c r="S10">
+        <v>0.03317218416563796</v>
+      </c>
+      <c r="T10">
+        <v>0.04011006818042009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>11.74303333333333</v>
+      </c>
+      <c r="H11">
+        <v>35.2291</v>
+      </c>
+      <c r="I11">
+        <v>0.08107085287879548</v>
+      </c>
+      <c r="J11">
+        <v>0.09802663038937569</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.231675</v>
+      </c>
+      <c r="N11">
+        <v>0.695025</v>
+      </c>
+      <c r="O11">
+        <v>0.5908247787249524</v>
+      </c>
+      <c r="P11">
+        <v>0.5908247787249525</v>
+      </c>
+      <c r="Q11">
+        <v>2.7205672475</v>
+      </c>
+      <c r="R11">
+        <v>24.4851052275</v>
+      </c>
+      <c r="S11">
+        <v>0.04789866871315751</v>
+      </c>
+      <c r="T11">
+        <v>0.0579165622089556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>60.1916805</v>
+      </c>
+      <c r="H12">
+        <v>120.383361</v>
+      </c>
+      <c r="I12">
+        <v>0.4155477325003729</v>
+      </c>
+      <c r="J12">
+        <v>0.3349723732305901</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.1604463333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.481339</v>
+      </c>
+      <c r="O12">
+        <v>0.4091752212750475</v>
+      </c>
+      <c r="P12">
+        <v>0.4091752212750475</v>
+      </c>
+      <c r="Q12">
+        <v>9.657534433396499</v>
+      </c>
+      <c r="R12">
+        <v>57.945206600379</v>
+      </c>
+      <c r="S12">
+        <v>0.1700318353961843</v>
+      </c>
+      <c r="T12">
+        <v>0.1370623949376545</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>60.1916805</v>
+      </c>
+      <c r="H13">
+        <v>120.383361</v>
+      </c>
+      <c r="I13">
+        <v>0.4155477325003729</v>
+      </c>
+      <c r="J13">
+        <v>0.3349723732305901</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.231675</v>
+      </c>
+      <c r="N13">
+        <v>0.695025</v>
+      </c>
+      <c r="O13">
+        <v>0.5908247787249524</v>
+      </c>
+      <c r="P13">
+        <v>0.5908247787249525</v>
+      </c>
+      <c r="Q13">
+        <v>13.9449075798375</v>
+      </c>
+      <c r="R13">
+        <v>83.669445479025</v>
+      </c>
+      <c r="S13">
+        <v>0.2455158971041885</v>
+      </c>
+      <c r="T13">
+        <v>0.1979099782929356</v>
       </c>
     </row>
   </sheetData>
